--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BGDPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0716EB75-AC41-4872-9E60-0CDA0BA5BDA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Notes:</t>
   </si>
@@ -65,9 +79,6 @@
     <t>is guaranteed in the model, to provide for grid stability and regulation needs.</t>
   </si>
   <si>
-    <t>The model will disatch these plants in the guaranteed dispatch section by the larger</t>
-  </si>
-  <si>
     <t>of the default amount or the amount specified here by the user.</t>
   </si>
   <si>
@@ -81,12 +92,51 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>The model will dispatch these plants in the guaranteed dispatch section by the larger</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>Must-run status for wind and solar</t>
+  </si>
+  <si>
+    <t>Indian Electricity Grid Code (IEGC)</t>
+  </si>
+  <si>
+    <t>http://www.cercind.gov.in/2016/regulation/9.pdf</t>
+  </si>
+  <si>
+    <t>Sec 5.2 (u), pp 138 - Must-run status for wind and solar</t>
+  </si>
+  <si>
+    <t>Sec 6.5 (11). Pp 176 - must-run for all RE except Biomass and Cogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For India, we dispatch 100% to wind, solar and as per must-run status </t>
+  </si>
+  <si>
+    <t>accorded to these sources in IEGC.</t>
+  </si>
+  <si>
+    <t>BAU Guaranteed Dispatch (dimensionless)</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,12 +154,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,11 +180,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,8 +203,104 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124863</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB587BA5-4232-44F1-800A-501E111B27D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="0"/>
+          <a:ext cx="5611263" cy="2126676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>359182</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A3438F-32BE-4250-85BF-11D8369E755F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715000" y="2476500"/>
+          <a:ext cx="5845582" cy="1428749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -187,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,9 +379,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +431,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,12 +623,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -444,56 +640,102 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="A5" s="4">
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +745,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -615,7 +860,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1207,150 +1452,150 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -1358,147 +1603,147 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
@@ -1506,147 +1751,147 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
@@ -1789,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AJ9">
-        <f t="shared" ref="D9:AK14" si="2">$B9</f>
+        <f t="shared" ref="D9:AK17" si="2">$B9</f>
         <v>0</v>
       </c>
       <c r="AK9">
@@ -2243,7 +2488,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2391,149 +2636,593 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <f>$B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>$B15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>$B16</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>$B17</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:AK17" si="3">$B17</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\India\Models\eps-india\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0716EB75-AC41-4872-9E60-0CDA0BA5BDA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,23 +378,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -431,23 +413,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -623,10 +588,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -731,13 +696,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2195,147 +2162,147 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="S11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="U11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="W11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="Y11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="Z11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AB11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AC11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AD11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AE11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AF11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AG11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AH11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AI11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\India\Models\eps-india\InputData\elec\BGDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\elec\BGDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BGDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -591,99 +591,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -702,17 +702,17 @@
   </sheetPr>
   <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -825,7 +825,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1861,155 +1861,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <f t="shared" ref="D9:AK17" si="2">$B9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>33</v>
       </c>

--- a/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/BGDPbES/BAU Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Notes:</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Sec 6.5 (11). Pp 176 - must-run for all RE except Biomass and Cogen</t>
   </si>
   <si>
-    <t xml:space="preserve">For India, we dispatch 100% to wind, solar and as per must-run status </t>
-  </si>
-  <si>
     <t>accorded to these sources in IEGC.</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Biomass source is also guaranteed to ensure it is dispatched based on price in the model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For India, we dispatch 100% to wind and solar as per must-run status </t>
   </si>
 </sst>
 </file>
@@ -589,9 +592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -670,22 +675,27 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2">
         <v>2015</v>
@@ -2751,7 +2761,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2899,7 +2909,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3047,7 +3057,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0</v>
